--- a/WBS（ストックリード）3月24日更新.xlsx
+++ b/WBS（ストックリード）3月24日更新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uya19951018/Desktop/geekation_php_own-main/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7092DE9-F4E6-1D4A-AE05-CDD104824B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB061B9-3EBA-2D44-B54A-156C372C5360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>画面の作成</t>
-  </si>
-  <si>
-    <t>単体テスト</t>
   </si>
   <si>
     <t>テスト項目書の作成</t>
@@ -663,6 +660,13 @@
     <t>テナント・ユーザー分岐</t>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ブンキ </t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>単体・結合テスト</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ケツゴウ </t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1197,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A1:AB1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1524,10 +1528,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="20">
         <v>3</v>
@@ -1537,7 +1541,7 @@
         <v>45016</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1564,10 +1568,10 @@
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="20">
         <v>3</v>
@@ -1577,7 +1581,7 @@
         <v>45016</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1604,10 +1608,10 @@
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="20">
         <v>3</v>
@@ -1617,7 +1621,7 @@
         <v>45016</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1644,10 +1648,10 @@
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="20">
         <v>3</v>
@@ -1657,7 +1661,7 @@
         <v>45016</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1684,10 +1688,10 @@
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="20">
         <v>3</v>
@@ -1697,7 +1701,7 @@
         <v>45016</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1724,10 +1728,10 @@
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
       <c r="D13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="20">
         <v>3</v>
@@ -1737,7 +1741,7 @@
         <v>45016</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1764,10 +1768,10 @@
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="20">
         <v>3</v>
@@ -1777,7 +1781,7 @@
         <v>45016</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1804,10 +1808,10 @@
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="20">
         <v>3</v>
@@ -1817,7 +1821,7 @@
         <v>45016</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1844,10 +1848,10 @@
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="20">
         <v>3</v>
@@ -1857,7 +1861,7 @@
         <v>45016</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1884,10 +1888,10 @@
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="20">
         <v>3</v>
@@ -1897,7 +1901,7 @@
         <v>45016</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1924,10 +1928,10 @@
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="20">
         <v>3</v>
@@ -1937,7 +1941,7 @@
         <v>45016</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1964,10 +1968,10 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="20">
         <v>3</v>
@@ -1977,7 +1981,7 @@
         <v>45016</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2004,10 +2008,10 @@
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="20">
         <v>3</v>
@@ -2017,7 +2021,7 @@
         <v>45016</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2059,7 +2063,7 @@
         <v>45016</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>23</v>
@@ -2101,7 +2105,7 @@
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -2145,7 +2149,7 @@
         <v>45016</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>23</v>
@@ -2189,7 +2193,7 @@
         <v>45016</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>23</v>
@@ -2231,7 +2235,7 @@
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -2275,7 +2279,7 @@
         <v>45016</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>23</v>
@@ -2359,7 +2363,7 @@
         <v>45037</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>23</v>
@@ -2403,7 +2407,7 @@
         <v>45037</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>23</v>
@@ -2434,10 +2438,10 @@
         <v>44</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="20">
         <v>8</v>
@@ -2446,7 +2450,7 @@
         <v>45037</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>23</v>
@@ -2475,10 +2479,10 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="20">
         <v>8</v>
@@ -2488,13 +2492,13 @@
         <v>45037</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2519,10 +2523,10 @@
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
       <c r="D32" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="20">
         <v>8</v>
@@ -2532,7 +2536,7 @@
         <v>45037</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>23</v>
@@ -2561,10 +2565,10 @@
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
       <c r="D33" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="20">
         <v>8</v>
@@ -2574,7 +2578,7 @@
         <v>45037</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2601,10 +2605,10 @@
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
       <c r="D34" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="20">
         <v>8</v>
@@ -2614,11 +2618,11 @@
         <v>45037</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2643,10 +2647,10 @@
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
       <c r="D35" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="20">
         <v>8</v>
@@ -2656,7 +2660,7 @@
         <v>45037</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2683,10 +2687,10 @@
       <c r="B36" s="27"/>
       <c r="C36" s="8"/>
       <c r="D36" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="20">
         <v>8</v>
@@ -2696,7 +2700,7 @@
         <v>45037</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>23</v>
@@ -2725,10 +2729,10 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="20">
         <v>8</v>
@@ -2738,7 +2742,7 @@
         <v>45037</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>23</v>
@@ -2767,10 +2771,10 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="20">
         <v>8</v>
@@ -2780,7 +2784,7 @@
         <v>45037</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>23</v>
@@ -2809,10 +2813,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="20">
         <v>8</v>
@@ -2822,7 +2826,7 @@
         <v>45037</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>23</v>
@@ -2851,10 +2855,10 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" s="20">
         <v>8</v>
@@ -2864,7 +2868,7 @@
         <v>45037</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>23</v>
@@ -2893,10 +2897,10 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41" s="20">
         <v>8</v>
@@ -2906,7 +2910,7 @@
         <v>45037</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>23</v>
@@ -2935,10 +2939,10 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="20">
         <v>8</v>
@@ -2948,7 +2952,7 @@
         <v>45037</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>23</v>
@@ -3013,16 +3017,16 @@
     <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="20">
         <v>2</v>
@@ -3032,7 +3036,7 @@
         <v>45040</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>23</v>
@@ -3060,13 +3064,13 @@
       <c r="A45" s="24"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="20">
         <v>3</v>
@@ -3076,13 +3080,13 @@
         <v>45040</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3143,7 +3147,7 @@
     <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="24"/>
       <c r="B47" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>20</v>
@@ -3152,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="20">
         <v>1</v>
@@ -3162,7 +3166,7 @@
         <v>45040</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>23</v>
@@ -3227,16 +3231,16 @@
     <row r="49" spans="1:28" ht="15.75" customHeight="1">
       <c r="A49" s="29"/>
       <c r="B49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
@@ -3246,7 +3250,7 @@
         <v>45041</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>23</v>
@@ -3310,7 +3314,7 @@
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="29"/>
       <c r="B51" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>20</v>
@@ -3319,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
@@ -3329,7 +3333,7 @@
         <v>45042</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>23</v>
